--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nppc-Npr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nppc-Npr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Npr3</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,7 +525,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -531,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.647218666666666</v>
+        <v>2.647218666666667</v>
       </c>
       <c r="H2">
-        <v>7.941655999999999</v>
+        <v>7.941656</v>
       </c>
       <c r="I2">
         <v>0.4640059894538357</v>
       </c>
       <c r="J2">
-        <v>0.4640059894538357</v>
+        <v>0.4640059894538356</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -549,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.195417</v>
+        <v>1.536685</v>
       </c>
       <c r="N2">
-        <v>3.586251</v>
+        <v>4.610055</v>
       </c>
       <c r="O2">
-        <v>0.724690891256891</v>
+        <v>0.4822880013826122</v>
       </c>
       <c r="P2">
-        <v>0.724690891256891</v>
+        <v>0.4822880013826122</v>
       </c>
       <c r="Q2">
-        <v>3.164530196850666</v>
+        <v>4.067941216786667</v>
       </c>
       <c r="R2">
-        <v>28.48077177165599</v>
+        <v>36.61147095108</v>
       </c>
       <c r="S2">
-        <v>0.3362609140458357</v>
+        <v>0.2237845212832519</v>
       </c>
       <c r="T2">
-        <v>0.3362609140458357</v>
+        <v>0.2237845212832519</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -593,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.647218666666666</v>
+        <v>2.647218666666667</v>
       </c>
       <c r="H3">
-        <v>7.941655999999999</v>
+        <v>7.941656</v>
       </c>
       <c r="I3">
         <v>0.4640059894538357</v>
       </c>
       <c r="J3">
-        <v>0.4640059894538357</v>
+        <v>0.4640059894538356</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -611,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.4541373333333333</v>
+        <v>1.195417</v>
       </c>
       <c r="N3">
-        <v>1.362412</v>
+        <v>3.586251</v>
       </c>
       <c r="O3">
-        <v>0.275309108743109</v>
+        <v>0.3751811696924212</v>
       </c>
       <c r="P3">
-        <v>0.275309108743109</v>
+        <v>0.3751811696924212</v>
       </c>
       <c r="Q3">
-        <v>1.202200826030222</v>
+        <v>3.164530196850667</v>
       </c>
       <c r="R3">
-        <v>10.819807434272</v>
+        <v>28.480771771656</v>
       </c>
       <c r="S3">
-        <v>0.1277450754079999</v>
+        <v>0.1740863098675793</v>
       </c>
       <c r="T3">
-        <v>0.1277450754079999</v>
+        <v>0.1740863098675793</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -646,7 +649,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -655,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.057920333333333</v>
+        <v>2.647218666666667</v>
       </c>
       <c r="H4">
-        <v>9.173760999999999</v>
+        <v>7.941656</v>
       </c>
       <c r="I4">
-        <v>0.5359940105461644</v>
+        <v>0.4640059894538357</v>
       </c>
       <c r="J4">
-        <v>0.5359940105461644</v>
+        <v>0.4640059894538356</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -673,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.195417</v>
+        <v>0.4541373333333333</v>
       </c>
       <c r="N4">
-        <v>3.586251</v>
+        <v>1.362412</v>
       </c>
       <c r="O4">
-        <v>0.724690891256891</v>
+        <v>0.1425308289249667</v>
       </c>
       <c r="P4">
-        <v>0.724690891256891</v>
+        <v>0.1425308289249667</v>
       </c>
       <c r="Q4">
-        <v>3.655489951112333</v>
+        <v>1.202200826030222</v>
       </c>
       <c r="R4">
-        <v>32.89940956001099</v>
+        <v>10.819807434272</v>
       </c>
       <c r="S4">
-        <v>0.3884299772110553</v>
+        <v>0.06613515830300457</v>
       </c>
       <c r="T4">
-        <v>0.3884299772110553</v>
+        <v>0.06613515830300457</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,7 +711,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,10 +726,10 @@
         <v>9.173760999999999</v>
       </c>
       <c r="I5">
-        <v>0.5359940105461644</v>
+        <v>0.5359940105461642</v>
       </c>
       <c r="J5">
-        <v>0.5359940105461644</v>
+        <v>0.5359940105461642</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -735,28 +738,152 @@
         <v>1</v>
       </c>
       <c r="M5">
+        <v>1.536685</v>
+      </c>
+      <c r="N5">
+        <v>4.610055</v>
+      </c>
+      <c r="O5">
+        <v>0.4822880013826122</v>
+      </c>
+      <c r="P5">
+        <v>0.4822880013826122</v>
+      </c>
+      <c r="Q5">
+        <v>4.699060307428334</v>
+      </c>
+      <c r="R5">
+        <v>42.291542766855</v>
+      </c>
+      <c r="S5">
+        <v>0.2585034800993603</v>
+      </c>
+      <c r="T5">
+        <v>0.2585034800993604</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3.057920333333333</v>
+      </c>
+      <c r="H6">
+        <v>9.173760999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.5359940105461642</v>
+      </c>
+      <c r="J6">
+        <v>0.5359940105461642</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.195417</v>
+      </c>
+      <c r="N6">
+        <v>3.586251</v>
+      </c>
+      <c r="O6">
+        <v>0.3751811696924212</v>
+      </c>
+      <c r="P6">
+        <v>0.3751811696924212</v>
+      </c>
+      <c r="Q6">
+        <v>3.655489951112334</v>
+      </c>
+      <c r="R6">
+        <v>32.899409560011</v>
+      </c>
+      <c r="S6">
+        <v>0.2010948598248418</v>
+      </c>
+      <c r="T6">
+        <v>0.2010948598248418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.057920333333333</v>
+      </c>
+      <c r="H7">
+        <v>9.173760999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.5359940105461642</v>
+      </c>
+      <c r="J7">
+        <v>0.5359940105461642</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
         <v>0.4541373333333333</v>
       </c>
-      <c r="N5">
+      <c r="N7">
         <v>1.362412</v>
       </c>
-      <c r="O5">
-        <v>0.275309108743109</v>
-      </c>
-      <c r="P5">
-        <v>0.275309108743109</v>
-      </c>
-      <c r="Q5">
+      <c r="O7">
+        <v>0.1425308289249667</v>
+      </c>
+      <c r="P7">
+        <v>0.1425308289249667</v>
+      </c>
+      <c r="Q7">
         <v>1.388715785725778</v>
       </c>
-      <c r="R5">
+      <c r="R7">
         <v>12.498442071532</v>
       </c>
-      <c r="S5">
-        <v>0.1475640333351091</v>
-      </c>
-      <c r="T5">
-        <v>0.1475640333351091</v>
+      <c r="S7">
+        <v>0.07639567062196213</v>
+      </c>
+      <c r="T7">
+        <v>0.07639567062196216</v>
       </c>
     </row>
   </sheetData>
